--- a/Excel_proyects_BI 3.xlsx
+++ b/Excel_proyects_BI 3.xlsx
@@ -9,88 +9,123 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Mixed Integer example" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="mixed Intg PL" sheetId="2" r:id="rId2"/>
+    <sheet name="Integer LP" sheetId="3" r:id="rId3"/>
+    <sheet name="binary example investment" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Hoja2!$B$3:$C$3</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'Integer LP'!$B$3:$C$3</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Mixed Integer example'!$B$2:$C$2</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'mixed Intg PL'!$B$3:$C$3</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Hoja2!$B$3</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Integer LP'!$B$10:$C$10</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Mixed Integer example'!$D$9:$D$11</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Hoja2!$C$3</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Hoja2!$C$3</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Hoja2!$D$11</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">Hoja2!$D$12</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">Hoja2!$D$13</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'mixed Intg PL'!$B$3</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Integer LP'!$D$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'mixed Intg PL'!$C$3</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'mixed Intg PL'!$C$3</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'mixed Intg PL'!$D$11</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'mixed Intg PL'!$D$12</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'mixed Intg PL'!$D$13</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">6</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Hoja2!$B$7</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'Integer LP'!$B$7</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Mixed Integer example'!$B$6</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'mixed Intg PL'!$B$7</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Integer LP'!$B$12:$C$12</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Mixed Integer example'!$F$9:$F$11</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">entero</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Mixed Integer example'!$F$9:$F$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Integer LP'!$F$15</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">entero</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">entero</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">Hoja2!$F$11</definedName>
-    <definedName name="solver_rhs5" localSheetId="1" hidden="1">Hoja2!$F$12</definedName>
-    <definedName name="solver_rhs6" localSheetId="1" hidden="1">Hoja2!$F$13</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'mixed Intg PL'!$F$11</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'mixed Intg PL'!$F$12</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'mixed Intg PL'!$F$13</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -102,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>Alubias</t>
   </si>
@@ -180,6 +215,38 @@
   </si>
   <si>
     <t>*HAS TO BE WITHOUT STICK!</t>
+  </si>
+  <si>
+    <t>Contraitns:</t>
+  </si>
+  <si>
+    <t>Hours 
+production</t>
+  </si>
+  <si>
+    <t>Big poster/
+week</t>
+  </si>
+  <si>
+    <t>small poster/
+week</t>
+  </si>
+  <si>
+    <t>Limit sales big size/week</t>
+  </si>
+  <si>
+    <t>limit sales small size/week</t>
+  </si>
+  <si>
+    <t>Limit sales</t>
+  </si>
+  <si>
+    <t>One Big poster
+production</t>
+  </si>
+  <si>
+    <t>One small poster
+production</t>
   </si>
 </sst>
 </file>
@@ -187,9 +254,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -375,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -392,17 +459,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -419,11 +486,11 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -464,6 +531,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,6 +1109,130 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762250" y="19050"/>
+          <a:ext cx="9667875" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>315403</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5353050" y="2101948"/>
+          <a:ext cx="7154353" cy="2584742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>31809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>715452</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>181301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5353050" y="31809"/>
+          <a:ext cx="6792402" cy="2054492"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1432,10 +1646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S14"/>
+  <dimension ref="A2:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A6" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,6 +1785,9 @@
       <c r="B14" s="26"/>
       <c r="C14" s="33"/>
     </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C16" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D4:E4"/>
@@ -1579,4 +1796,182 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>5</v>
+      </c>
+      <c r="C4" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="48">
+        <f>SUMPRODUCT(B3:C3,B4:C4)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="46">
+        <f>B3</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="46">
+        <f>C3</f>
+        <v>6</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+    </row>
+    <row r="14" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="41">
+        <v>3</v>
+      </c>
+      <c r="C15" s="41">
+        <v>1.5</v>
+      </c>
+      <c r="D15" s="13">
+        <f>SUMPRODUCT(B3:C3,B15:C15)</f>
+        <v>15</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D15)</f>
+        <v>=SUMAPRODUCTO(B3:C3;B15:C15)</v>
+      </c>
+      <c r="F16" s="40"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel_proyects_BI 3.xlsx
+++ b/Excel_proyects_BI 3.xlsx
@@ -9,123 +9,237 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Mixed Integer example" sheetId="1" r:id="rId1"/>
     <sheet name="mixed Intg PL" sheetId="2" r:id="rId2"/>
     <sheet name="Integer LP" sheetId="3" r:id="rId3"/>
     <sheet name="binary example investment" sheetId="4" r:id="rId4"/>
+    <sheet name="binary example" sheetId="5" r:id="rId5"/>
+    <sheet name="nor-linear variance" sheetId="6" r:id="rId6"/>
+    <sheet name="nor-linear variance ing example" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'binary example investment'!$B$8:$H$8</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'Integer LP'!$B$3:$C$3</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Mixed Integer example'!$B$2:$C$2</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'mixed Intg PL'!$B$3:$C$3</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'nor-linear variance'!$B$2:$C$2</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'nor-linear variance ing example'!$B$2:$C$2</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'binary example investment'!$B$8:$H$8</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Integer LP'!$B$10:$C$10</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Mixed Integer example'!$D$9:$D$11</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'mixed Intg PL'!$B$3</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'nor-linear variance'!$D$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'nor-linear variance ing example'!$B$2:$C$2</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'binary example investment'!$I$14</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Integer LP'!$D$15</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'mixed Intg PL'!$C$3</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'nor-linear variance'!$D$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'nor-linear variance ing example'!$D$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'binary example investment'!$I$15</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'mixed Intg PL'!$C$3</definedName>
+    <definedName name="solver_lhs3" localSheetId="6" hidden="1">'nor-linear variance ing example'!$D$10</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'binary example investment'!$I$16</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'mixed Intg PL'!$D$11</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'binary example investment'!$I$17</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">'mixed Intg PL'!$D$12</definedName>
     <definedName name="solver_lhs6" localSheetId="1" hidden="1">'mixed Intg PL'!$D$13</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">6</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'binary example investment'!$B$11</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Integer LP'!$B$7</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Mixed Integer example'!$B$6</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'mixed Intg PL'!$B$7</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'nor-linear variance'!$B$11</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'nor-linear variance ing example'!$B$5</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">5</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_rel3" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">binario</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Integer LP'!$B$12:$C$12</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Mixed Integer example'!$F$9:$F$11</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">entero</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">'nor-linear variance'!$F$15</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">entero</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'binary example investment'!$K$14</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Integer LP'!$F$15</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">entero</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'nor-linear variance'!$F$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">'nor-linear variance ing example'!$F$10</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'binary example investment'!$K$15</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">entero</definedName>
+    <definedName name="solver_rhs3" localSheetId="6" hidden="1">'nor-linear variance ing example'!$F$10</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">'binary example investment'!$K$16</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">'mixed Intg PL'!$F$11</definedName>
+    <definedName name="solver_rhs5" localSheetId="3" hidden="1">'binary example investment'!$K$17</definedName>
     <definedName name="solver_rhs5" localSheetId="1" hidden="1">'mixed Intg PL'!$F$12</definedName>
     <definedName name="solver_rhs6" localSheetId="1" hidden="1">'mixed Intg PL'!$F$13</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -137,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
     <t>Alubias</t>
   </si>
@@ -247,6 +361,166 @@
   <si>
     <t>One small poster
 production</t>
+  </si>
+  <si>
+    <t>Investment decision binary:</t>
+  </si>
+  <si>
+    <t>When you can resolve the question with yes or not.</t>
+  </si>
+  <si>
+    <t>Binary: 0 or 1</t>
+  </si>
+  <si>
+    <t>0=no</t>
+  </si>
+  <si>
+    <t>1=yes</t>
+  </si>
+  <si>
+    <t>Variables:</t>
+  </si>
+  <si>
+    <t>British 
+Petroleum(BP)</t>
+  </si>
+  <si>
+    <t>Shell 
+holandesa</t>
+  </si>
+  <si>
+    <t>Houston 
+Dilling</t>
+  </si>
+  <si>
+    <t>Petróleo 
+de Texas</t>
+  </si>
+  <si>
+    <t>Petróleo de 
+San Diego</t>
+  </si>
+  <si>
+    <t>California 
+Petro</t>
+  </si>
+  <si>
+    <t>Trans-Texas 
+Oil</t>
+  </si>
+  <si>
+    <t>(0;1)</t>
+  </si>
+  <si>
+    <t>Max Performance:</t>
+  </si>
+  <si>
+    <t>Contraints:</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>At least 2 Texas Co.</t>
+  </si>
+  <si>
+    <t>No more than 1 foreing Co.</t>
+  </si>
+  <si>
+    <t>Buy 1 of California shares(acciones)</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Budget (presupuesto)</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Non linear vans:</t>
+  </si>
+  <si>
+    <t>x^2</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>Y^2</t>
+  </si>
+  <si>
+    <t>Formulas:</t>
+  </si>
+  <si>
+    <t>Objetive (min):</t>
+  </si>
+  <si>
+    <t>Constraints:</t>
+  </si>
+  <si>
+    <t>Variance (riesgo):</t>
+  </si>
+  <si>
+    <t>Variable:</t>
+  </si>
+  <si>
+    <t>LHS</t>
+  </si>
+  <si>
+    <t>RHS</t>
+  </si>
+  <si>
+    <t>Historic.rentab %</t>
+  </si>
+  <si>
+    <t>Max profit:</t>
+  </si>
+  <si>
+    <t>Hours production/week</t>
+  </si>
+  <si>
+    <t>X=XJ6</t>
+  </si>
+  <si>
+    <t>Y=XJ8</t>
+  </si>
+  <si>
+    <t>(000s)</t>
+  </si>
+  <si>
+    <t>(4-.1X)</t>
+  </si>
+  <si>
+    <t>(5-.02Y)</t>
+  </si>
+  <si>
+    <t>=X(4-0,1X)+Y(5-0,02Y) fórmula</t>
+  </si>
+  <si>
+    <t>*When we use 'Solver' we have to add the variables cells to integer number!.</t>
   </si>
 </sst>
 </file>
@@ -258,7 +532,7 @@
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,8 +563,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +599,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,10 +732,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -525,12 +819,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -554,9 +842,57 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1156,16 +1492,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>6448</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>149323</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>315403</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114690</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>382078</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1182,7 +1518,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5353050" y="2101948"/>
+          <a:off x="11801475" y="2054323"/>
           <a:ext cx="7154353" cy="2584742"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1194,16 +1530,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>31809</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>54268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>715452</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>572577</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>181301</xdr:rowOff>
+      <xdr:rowOff>19375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1220,8 +1556,175 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5353050" y="31809"/>
-          <a:ext cx="6792402" cy="2054492"/>
+          <a:off x="9915525" y="244768"/>
+          <a:ext cx="6182802" cy="1870107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>289228</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086476" y="0"/>
+          <a:ext cx="9442752" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>155499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171962</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086475" y="1488999"/>
+          <a:ext cx="6210300" cy="2683463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1281</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971925" y="0"/>
+          <a:ext cx="5630556" cy="2343150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>239174</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5772150" y="409575"/>
+          <a:ext cx="7516274" cy="1533739"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1687,20 +2190,20 @@
       <c r="C4" s="17">
         <v>5100</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="36"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1710,9 +2213,9 @@
         <f>SUMPRODUCT(B3:C3,B4:C4)</f>
         <v>37900</v>
       </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
     </row>
     <row r="10" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -1835,7 +2338,7 @@
       <c r="B4" s="8">
         <v>5</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="36">
         <v>7</v>
       </c>
     </row>
@@ -1848,13 +2351,13 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="46">
         <f>SUMPRODUCT(B3:C3,B4:C4)</f>
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="45" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1868,18 +2371,18 @@
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="44">
         <f>B3</f>
         <v>2</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="44">
         <f>C3</f>
         <v>6</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
     </row>
@@ -1910,7 +2413,7 @@
       <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1919,16 +2422,16 @@
       <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="41" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
-      <c r="B15" s="41">
+      <c r="B15" s="39">
         <v>3</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="39">
         <v>1.5</v>
       </c>
       <c r="D15" s="13">
@@ -1938,7 +2441,7 @@
       <c r="E15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="42">
         <v>15</v>
       </c>
     </row>
@@ -1949,7 +2452,7 @@
         <f ca="1">_xlfn.FORMULATEXT(D15)</f>
         <v>=SUMAPRODUCTO(B3:C3;B15:C15)</v>
       </c>
-      <c r="F16" s="40"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
@@ -1963,14 +2466,772 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="49">
+        <v>0</v>
+      </c>
+      <c r="C8" s="49">
+        <v>0</v>
+      </c>
+      <c r="D8" s="49">
+        <v>1</v>
+      </c>
+      <c r="E8" s="49">
+        <v>1</v>
+      </c>
+      <c r="F8" s="49">
+        <v>1</v>
+      </c>
+      <c r="G8" s="49">
+        <v>1</v>
+      </c>
+      <c r="H8" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="13">
+        <v>50</v>
+      </c>
+      <c r="C9" s="13">
+        <v>80</v>
+      </c>
+      <c r="D9" s="13">
+        <v>90</v>
+      </c>
+      <c r="E9" s="13">
+        <v>120</v>
+      </c>
+      <c r="F9" s="13">
+        <v>110</v>
+      </c>
+      <c r="G9" s="13">
+        <v>40</v>
+      </c>
+      <c r="H9" s="13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="15">
+        <f>SUMPRODUCT(B8:H8,B9:H9)</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
+        <f>SUMPRODUCT(B8:H8,B14:H14)</f>
+        <v>2</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2">
+        <f>SUMPRODUCT(B8:H8,B15:H15)</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <f>SUMPRODUCT(B8:H8,B16:H16)</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="2">
+        <v>480</v>
+      </c>
+      <c r="C17" s="2">
+        <v>540</v>
+      </c>
+      <c r="D17" s="2">
+        <v>680</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="2">
+        <v>700</v>
+      </c>
+      <c r="G17" s="2">
+        <v>510</v>
+      </c>
+      <c r="H17" s="2">
+        <v>900</v>
+      </c>
+      <c r="I17" s="2">
+        <f>SUMPRODUCT(B8:H8,B17:H17)</f>
+        <v>2890</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G3"/>
+  <sheetViews>
+    <sheetView topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="51">
+        <v>1</v>
+      </c>
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51">
+        <v>0</v>
+      </c>
+      <c r="E3" s="51">
+        <v>0</v>
+      </c>
+      <c r="F3" s="51">
+        <v>0</v>
+      </c>
+      <c r="G3" s="51">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="62">
+        <v>0.93023256654861053</v>
+      </c>
+      <c r="C2" s="62">
+        <v>6.9767447328247356E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="55"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2">
+        <f>B2^2</f>
+        <v>0.86533262786761511</v>
+      </c>
+      <c r="C6" s="2">
+        <f>B2*C2</f>
+        <v>6.4899951589700536E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <f>C2^2</f>
+        <v>4.8674967066997688E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B6)</f>
+        <v>=B2^2</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C6)</f>
+        <v>=B2*C2</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D6)</f>
+        <v>=C2^2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="57">
+        <f>SUMPRODUCT(B6:D6,B8:D8)</f>
+        <v>0.15581395781278831</v>
+      </c>
+      <c r="C11" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B11)</f>
+        <v>=SUMAPRODUCTO(B6:D6;B8:D8)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="58">
+        <f>SUMPRODUCT($B$2:$C$2,B15:C15)</f>
+        <v>1.0000000138768579</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="58">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D15)</f>
+        <v>=SUMAPRODUCTO($B$2:$C$2;B15:C15)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="58">
+        <v>0.11</v>
+      </c>
+      <c r="C16" s="58">
+        <v>0.08</v>
+      </c>
+      <c r="D16" s="58">
+        <f>SUMPRODUCT($B$2:$C$2,B16:C16)</f>
+        <v>0.10790697810660695</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="58">
+        <v>0.09</v>
+      </c>
+      <c r="G16" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D16)</f>
+        <v>=SUMAPRODUCTO($B$2:$C$2;B16:C16)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="56">
+        <v>10</v>
+      </c>
+      <c r="C2" s="56">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <f>4-0.1*B2</f>
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>5-0.02*C2</f>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D2)</f>
+        <v>=4-0,1*B2</v>
+      </c>
+      <c r="E3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(E2)</f>
+        <v>=5-0,02*C2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="57">
+        <f>B2*D2+C2*E2</f>
+        <v>100.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B5)</f>
+        <v>=B2*D2+C2*E2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUMPRODUCT(B2:C2,B10:C10)</f>
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Excel_proyects_BI 3.xlsx
+++ b/Excel_proyects_BI 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Mixed Integer example" sheetId="1" r:id="rId1"/>
@@ -19,52 +19,70 @@
     <sheet name="binary example" sheetId="5" r:id="rId5"/>
     <sheet name="nor-linear variance" sheetId="6" r:id="rId6"/>
     <sheet name="nor-linear variance ing example" sheetId="7" r:id="rId7"/>
+    <sheet name="nor-linear example" sheetId="8" r:id="rId8"/>
+    <sheet name="linear problem" sheetId="9" r:id="rId9"/>
+    <sheet name="nor-linear simple example" sheetId="10" r:id="rId10"/>
+    <sheet name="final exersice" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'binary example investment'!$B$8:$H$8</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'Integer LP'!$B$3:$C$3</definedName>
+    <definedName name="solver_adj" localSheetId="8" hidden="1">'linear problem'!$B$2:$C$2</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Mixed Integer example'!$B$2:$C$2</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'mixed Intg PL'!$B$3:$C$3</definedName>
+    <definedName name="solver_adj" localSheetId="9" hidden="1">'nor-linear simple example'!$B$2</definedName>
     <definedName name="solver_adj" localSheetId="5" hidden="1">'nor-linear variance'!$B$2:$C$2</definedName>
     <definedName name="solver_adj" localSheetId="6" hidden="1">'nor-linear variance ing example'!$B$2:$C$2</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="9" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'binary example investment'!$B$8:$H$8</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Integer LP'!$B$10:$C$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="8" hidden="1">'linear problem'!$B$2:$C$2</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Mixed Integer example'!$D$9:$D$11</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'mixed Intg PL'!$B$3</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">'nor-linear variance'!$D$15</definedName>
     <definedName name="solver_lhs1" localSheetId="6" hidden="1">'nor-linear variance ing example'!$B$2:$C$2</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'binary example investment'!$I$14</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Integer LP'!$D$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="8" hidden="1">'linear problem'!$D$9:$D$10</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'mixed Intg PL'!$C$3</definedName>
     <definedName name="solver_lhs2" localSheetId="5" hidden="1">'nor-linear variance'!$D$16</definedName>
     <definedName name="solver_lhs2" localSheetId="6" hidden="1">'nor-linear variance ing example'!$D$10</definedName>
@@ -78,78 +96,102 @@
     <definedName name="solver_lhs6" localSheetId="1" hidden="1">'mixed Intg PL'!$D$13</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="8" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="9" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="8" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="9" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">6</definedName>
+    <definedName name="solver_num" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'binary example investment'!$B$11</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Integer LP'!$B$7</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">'linear problem'!$B$5</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Mixed Integer example'!$B$6</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'mixed Intg PL'!$B$7</definedName>
+    <definedName name="solver_opt" localSheetId="9" hidden="1">'nor-linear simple example'!$B$10</definedName>
     <definedName name="solver_opt" localSheetId="5" hidden="1">'nor-linear variance'!$B$11</definedName>
     <definedName name="solver_opt" localSheetId="6" hidden="1">'nor-linear variance ing example'!$B$5</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="9" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">5</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="8" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="6" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="6" hidden="1">1</definedName>
@@ -163,12 +205,14 @@
     <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">binario</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Integer LP'!$B$12:$C$12</definedName>
+    <definedName name="solver_rhs1" localSheetId="8" hidden="1">entero</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Mixed Integer example'!$F$9:$F$11</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">entero</definedName>
     <definedName name="solver_rhs1" localSheetId="5" hidden="1">'nor-linear variance'!$F$15</definedName>
     <definedName name="solver_rhs1" localSheetId="6" hidden="1">entero</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">'binary example investment'!$K$14</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Integer LP'!$F$15</definedName>
+    <definedName name="solver_rhs2" localSheetId="8" hidden="1">'linear problem'!$F$9:$F$10</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">entero</definedName>
     <definedName name="solver_rhs2" localSheetId="5" hidden="1">'nor-linear variance'!$F$16</definedName>
     <definedName name="solver_rhs2" localSheetId="6" hidden="1">'nor-linear variance ing example'!$F$10</definedName>
@@ -182,62 +226,82 @@
     <definedName name="solver_rhs6" localSheetId="1" hidden="1">'mixed Intg PL'!$F$13</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="8" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="9" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="9" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="8" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="9" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="9" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="8" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="9" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
   </definedNames>
@@ -251,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
   <si>
     <t>Alubias</t>
   </si>
@@ -521,18 +585,99 @@
   </si>
   <si>
     <t>*When we use 'Solver' we have to add the variables cells to integer number!.</t>
+  </si>
+  <si>
+    <t>*LAS VARIANZAS NO LINEALES PUEDEN elevarse al cuadrado o multiplicarse entre sí.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Unset"/>
+      </rPr>
+      <t>Seleccionar un método de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> resolución, debe elegir </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Unset"/>
+      </rPr>
+      <t>GRG No lineal en 'Solver'</t>
+    </r>
+  </si>
+  <si>
+    <t>*X= Nº de perritos calientes vendidos</t>
+  </si>
+  <si>
+    <t>4-.0001X</t>
+  </si>
+  <si>
+    <t>Max revenue:</t>
+  </si>
+  <si>
+    <t>p(X)=-0,0001X+4</t>
+  </si>
+  <si>
+    <t>Variable costs</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Calculus</t>
+  </si>
+  <si>
+    <t>*Encuentra el número de textos de Geometría y Cálculo que se deben fabricar para maximizar la ganancia cada mes.</t>
+  </si>
+  <si>
+    <t>hours work</t>
+  </si>
+  <si>
+    <t>hours correction</t>
+  </si>
+  <si>
+    <t>(*Las variables se han tenido que poner interger en 'Solver'.)</t>
+  </si>
+  <si>
+    <t>Profit (Revenue-costs):</t>
+  </si>
+  <si>
+    <t>Demand (Nº burguers):</t>
+  </si>
+  <si>
+    <t>Total Costs:</t>
+  </si>
+  <si>
+    <t>Objetive: max</t>
+  </si>
+  <si>
+    <t>price/ burger (p)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,6 +711,37 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Unset"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -736,7 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -855,15 +1031,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -889,6 +1056,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -939,6 +1162,92 @@
         <a:xfrm>
           <a:off x="6638925" y="161925"/>
           <a:ext cx="7687748" cy="1981477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>207670</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>86352</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="207670" y="2409825"/>
+          <a:ext cx="7555832" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>220169</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="381000"/>
+          <a:ext cx="7840169" cy="1762371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1736,6 +2045,130 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>430218</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181475" y="206290"/>
+          <a:ext cx="9326568" cy="1603734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>20470</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>124405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9524" y="2295561"/>
+          <a:ext cx="7754771" cy="3162844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1331</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>705493</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1331" y="2447924"/>
+          <a:ext cx="7066862" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2005,13 +2438,13 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2022,7 +2455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1">
       <c r="B2" s="10">
         <v>44.444444444444443</v>
       </c>
@@ -2030,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="B3" s="8">
         <v>85</v>
       </c>
@@ -2038,12 +2471,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -2056,7 +2489,7 @@
         <v>=SUMAPRODUCTO(B2:C2;B3:C3)</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="43.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -2072,7 +2505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -2093,7 +2526,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -2114,7 +2547,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -2135,13 +2568,128 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="D12" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D9)</f>
         <v>=SUMAPRODUCTO($B$2:$C$2;B9:C9)</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.5" customHeight="1">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="81">
+        <v>3.8000000004882817</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="84">
+        <f>-10000*B2+70000</f>
+        <v>31999.999995117185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="26">
+        <f>0.6*B6+2500</f>
+        <v>21699.99999707031</v>
+      </c>
+      <c r="C7" s="26" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B7)</f>
+        <v>=0,6*B6+2500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="83">
+        <f>B6*B2-B7</f>
+        <v>99900.000000000015</v>
+      </c>
+      <c r="C10" s="26" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B10)</f>
+        <v>=B6*B2-B7</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2155,13 +2703,13 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="40.5" customHeight="1">
       <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
@@ -2169,7 +2717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2183,29 +2731,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="B4" s="16">
         <v>8200</v>
       </c>
       <c r="C4" s="17">
         <v>5100</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="52"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E4" s="63"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="53" t="s">
+      <c r="M6" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -2213,11 +2761,11 @@
         <f>SUMPRODUCT(B3:C3,B4:C4)</f>
         <v>37900</v>
       </c>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-    </row>
-    <row r="10" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+    </row>
+    <row r="10" spans="1:19" ht="45.75" thickBot="1">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
         <v>13</v>
@@ -2229,7 +2777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="18" t="s">
         <v>17</v>
       </c>
@@ -2250,7 +2798,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="31"/>
       <c r="B12" s="32"/>
       <c r="C12" s="34"/>
@@ -2268,7 +2816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1">
       <c r="A13" s="33"/>
       <c r="B13" s="26"/>
       <c r="C13" s="33"/>
@@ -2283,12 +2831,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="33"/>
       <c r="B14" s="26"/>
       <c r="C14" s="33"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="C16" s="13"/>
     </row>
   </sheetData>
@@ -2309,13 +2857,13 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30.75" customHeight="1">
       <c r="B2" s="14" t="s">
         <v>26</v>
       </c>
@@ -2323,7 +2871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -2334,7 +2882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="B4" s="8">
         <v>5</v>
       </c>
@@ -2342,12 +2890,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2356,7 +2904,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="45" t="s">
         <v>24</v>
       </c>
@@ -2370,7 +2918,7 @@
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="37" t="s">
         <v>30</v>
       </c>
@@ -2386,7 +2934,7 @@
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
@@ -2397,7 +2945,7 @@
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="B12" s="2">
         <v>4</v>
       </c>
@@ -2408,11 +2956,11 @@
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
     </row>
-    <row r="14" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31.5" customHeight="1">
       <c r="A14" s="40" t="s">
         <v>25</v>
       </c>
@@ -2426,7 +2974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="31"/>
       <c r="B15" s="39">
         <v>3</v>
@@ -2445,7 +2993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" t="str">
@@ -2454,7 +3002,7 @@
       </c>
       <c r="F16" s="38"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
     </row>
@@ -2472,7 +3020,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -2484,34 +3032,34 @@
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -2537,7 +3085,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -2563,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="B9" s="13">
         <v>50</v>
       </c>
@@ -2586,12 +3134,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -2600,7 +3148,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
@@ -2610,7 +3158,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -2638,7 +3186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -2664,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
@@ -2690,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
@@ -2726,7 +3274,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="33"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -2739,7 +3287,7 @@
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="50"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -2752,7 +3300,7 @@
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="33"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -2765,7 +3313,7 @@
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="33"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -2778,7 +3326,7 @@
       <c r="J21" s="26"/>
       <c r="K21" s="26"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="33"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -2791,7 +3339,7 @@
       <c r="J22" s="26"/>
       <c r="K22" s="26"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="33"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -2821,9 +3369,9 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -2846,7 +3394,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="B3" s="51">
         <v>1</v>
       </c>
@@ -2880,13 +3428,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
         <v>61</v>
@@ -2895,24 +3443,24 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="59">
         <v>0.93023256654861053</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="59">
         <v>6.9767447328247356E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="55"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="66"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>64</v>
@@ -2924,7 +3472,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>67</v>
       </c>
@@ -2941,7 +3489,7 @@
         <v>4.8674967066997688E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B6)</f>
@@ -2956,7 +3504,7 @@
         <v>=C2^2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>0.16</v>
@@ -2968,25 +3516,25 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="57" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="54">
         <f>SUMPRODUCT(B6:D6,B8:D8)</f>
         <v>0.15581395781278831</v>
       </c>
@@ -2995,12 +3543,12 @@
         <v>=SUMAPRODUCTO(B6:D6;B8:D8)</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="2" t="s">
         <v>72</v>
       </c>
@@ -3011,7 +3559,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>1</v>
@@ -3019,14 +3567,14 @@
       <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="55">
         <f>SUMPRODUCT($B$2:$C$2,B15:C15)</f>
         <v>1.0000000138768579</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="55">
         <v>1</v>
       </c>
       <c r="G15" t="str">
@@ -3034,24 +3582,24 @@
         <v>=SUMAPRODUCTO($B$2:$C$2;B15:C15)</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="58">
+      <c r="B16" s="55">
         <v>0.11</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="55">
         <v>0.08</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="55">
         <f>SUMPRODUCT($B$2:$C$2,B16:C16)</f>
         <v>0.10790697810660695</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="55">
         <v>0.09</v>
       </c>
       <c r="G16" t="str">
@@ -3059,7 +3607,7 @@
         <v>=SUMAPRODUCTO($B$2:$C$2;B16:C16)</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -3067,7 +3615,7 @@
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -3086,19 +3634,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
         <v>77</v>
@@ -3113,14 +3661,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="56">
+      <c r="B2" s="53">
         <v>10</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="53">
         <v>15</v>
       </c>
       <c r="D2">
@@ -3132,7 +3680,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="D3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(D2)</f>
         <v>=4-0,1*B2</v>
@@ -3142,16 +3690,16 @@
         <v>=5-0,02*C2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="54">
         <f>B2*D2+C2*E2</f>
         <v>100.5</v>
       </c>
@@ -3163,13 +3711,13 @@
         <v>=B2*D2+C2*E2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="64" t="s">
+    <row r="6" spans="1:6">
+      <c r="D6" s="61" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="60" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="2"/>
@@ -3184,7 +3732,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,7 +3753,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="33"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -3213,8 +3761,8 @@
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="62" t="s">
         <v>83</v>
       </c>
       <c r="B12" s="26"/>
@@ -3223,7 +3771,7 @@
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
       <c r="A13" s="33"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -3231,6 +3779,269 @@
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
     </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A15" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="76">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="77">
+        <f>0.0001*B2+4</f>
+        <v>4.0003000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="75">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="51">
+        <v>35</v>
+      </c>
+      <c r="C2" s="51">
+        <v>50</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="73">
+        <v>80</v>
+      </c>
+      <c r="C3" s="73">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="46">
+        <f>SUMPRODUCT(B2:C2,B3:C3)</f>
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUMPRODUCT($B$2:$C$2,B9:C9)</f>
+        <v>355</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
+        <v>360</v>
+      </c>
+      <c r="G9" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D9)</f>
+        <v>=SUMAPRODUCTO($B$2:$C$2;B9:C9)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUMPRODUCT($B$2:$C$2,B10:C10)</f>
+        <v>240</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2">
+        <v>240</v>
+      </c>
+      <c r="G10" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D10)</f>
+        <v>=SUMAPRODUCTO($B$2:$C$2;B10:C10)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="79"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Excel_proyects_BI 3.xlsx
+++ b/Excel_proyects_BI 3.xlsx
@@ -9,86 +9,85 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" firstSheet="8" activeTab="10"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7125" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Mixed Integer example" sheetId="1" r:id="rId1"/>
     <sheet name="mixed Intg PL" sheetId="2" r:id="rId2"/>
     <sheet name="Integer LP" sheetId="3" r:id="rId3"/>
     <sheet name="binary example investment" sheetId="4" r:id="rId4"/>
-    <sheet name="binary example" sheetId="5" r:id="rId5"/>
-    <sheet name="nor-linear variance" sheetId="6" r:id="rId6"/>
-    <sheet name="nor-linear variance ing example" sheetId="7" r:id="rId7"/>
-    <sheet name="nor-linear example" sheetId="8" r:id="rId8"/>
-    <sheet name="linear problem" sheetId="9" r:id="rId9"/>
-    <sheet name="nor-linear simple example" sheetId="10" r:id="rId10"/>
-    <sheet name="final exersice" sheetId="11" r:id="rId11"/>
+    <sheet name="nor-linear variance" sheetId="6" r:id="rId5"/>
+    <sheet name="nor-linear variance ing example" sheetId="7" r:id="rId6"/>
+    <sheet name="nor-linear example" sheetId="8" r:id="rId7"/>
+    <sheet name="linear problem" sheetId="9" r:id="rId8"/>
+    <sheet name="nor-linear simple example" sheetId="10" r:id="rId9"/>
+    <sheet name="final exersice" sheetId="11" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'binary example investment'!$B$8:$H$8</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'Integer LP'!$B$3:$C$3</definedName>
-    <definedName name="solver_adj" localSheetId="8" hidden="1">'linear problem'!$B$2:$C$2</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'linear problem'!$B$2:$C$2</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Mixed Integer example'!$B$2:$C$2</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'mixed Intg PL'!$B$3:$C$3</definedName>
-    <definedName name="solver_adj" localSheetId="9" hidden="1">'nor-linear simple example'!$B$2</definedName>
-    <definedName name="solver_adj" localSheetId="5" hidden="1">'nor-linear variance'!$B$2:$C$2</definedName>
-    <definedName name="solver_adj" localSheetId="6" hidden="1">'nor-linear variance ing example'!$B$2:$C$2</definedName>
+    <definedName name="solver_adj" localSheetId="8" hidden="1">'nor-linear simple example'!$B$2</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'nor-linear variance'!$B$2:$C$2</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'nor-linear variance ing example'!$B$2:$C$2</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="9" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_drv" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'binary example investment'!$B$8:$H$8</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Integer LP'!$B$10:$C$10</definedName>
-    <definedName name="solver_lhs1" localSheetId="8" hidden="1">'linear problem'!$B$2:$C$2</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'linear problem'!$B$2:$C$2</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Mixed Integer example'!$D$9:$D$11</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'mixed Intg PL'!$B$3</definedName>
-    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'nor-linear variance'!$D$15</definedName>
-    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'nor-linear variance ing example'!$B$2:$C$2</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'nor-linear variance'!$D$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'nor-linear variance ing example'!$B$2:$C$2</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'binary example investment'!$I$14</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Integer LP'!$D$15</definedName>
-    <definedName name="solver_lhs2" localSheetId="8" hidden="1">'linear problem'!$D$9:$D$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="7" hidden="1">'linear problem'!$D$9:$D$10</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'mixed Intg PL'!$C$3</definedName>
-    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'nor-linear variance'!$D$16</definedName>
-    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'nor-linear variance ing example'!$D$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'nor-linear variance'!$D$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'nor-linear variance ing example'!$D$10</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">'binary example investment'!$I$15</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'mixed Intg PL'!$C$3</definedName>
-    <definedName name="solver_lhs3" localSheetId="6" hidden="1">'nor-linear variance ing example'!$D$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'nor-linear variance ing example'!$D$10</definedName>
     <definedName name="solver_lhs4" localSheetId="3" hidden="1">'binary example investment'!$I$16</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'mixed Intg PL'!$D$11</definedName>
     <definedName name="solver_lhs5" localSheetId="3" hidden="1">'binary example investment'!$I$17</definedName>
@@ -96,108 +95,108 @@
     <definedName name="solver_lhs6" localSheetId="1" hidden="1">'mixed Intg PL'!$D$13</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="8" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="9" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="8" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="8" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="9" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="8" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">6</definedName>
-    <definedName name="solver_num" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'binary example investment'!$B$11</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Integer LP'!$B$7</definedName>
-    <definedName name="solver_opt" localSheetId="8" hidden="1">'linear problem'!$B$5</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">'linear problem'!$B$5</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Mixed Integer example'!$B$6</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'mixed Intg PL'!$B$7</definedName>
-    <definedName name="solver_opt" localSheetId="9" hidden="1">'nor-linear simple example'!$B$10</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">'nor-linear variance'!$B$11</definedName>
-    <definedName name="solver_opt" localSheetId="6" hidden="1">'nor-linear variance ing example'!$B$5</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">'nor-linear simple example'!$B$10</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'nor-linear variance'!$B$11</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'nor-linear variance ing example'!$B$5</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="9" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rbv" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">5</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="8" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="6" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_rel3" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="3" hidden="1">1</definedName>
@@ -205,20 +204,20 @@
     <definedName name="solver_rel6" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">binario</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">'Integer LP'!$B$12:$C$12</definedName>
-    <definedName name="solver_rhs1" localSheetId="8" hidden="1">entero</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">entero</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Mixed Integer example'!$F$9:$F$11</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">entero</definedName>
-    <definedName name="solver_rhs1" localSheetId="5" hidden="1">'nor-linear variance'!$F$15</definedName>
-    <definedName name="solver_rhs1" localSheetId="6" hidden="1">entero</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">'nor-linear variance'!$F$15</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">entero</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">'binary example investment'!$K$14</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Integer LP'!$F$15</definedName>
-    <definedName name="solver_rhs2" localSheetId="8" hidden="1">'linear problem'!$F$9:$F$10</definedName>
+    <definedName name="solver_rhs2" localSheetId="7" hidden="1">'linear problem'!$F$9:$F$10</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">entero</definedName>
-    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'nor-linear variance'!$F$16</definedName>
-    <definedName name="solver_rhs2" localSheetId="6" hidden="1">'nor-linear variance ing example'!$F$10</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'nor-linear variance'!$F$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'nor-linear variance ing example'!$F$10</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">'binary example investment'!$K$15</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">entero</definedName>
-    <definedName name="solver_rhs3" localSheetId="6" hidden="1">'nor-linear variance ing example'!$F$10</definedName>
+    <definedName name="solver_rhs3" localSheetId="5" hidden="1">'nor-linear variance ing example'!$F$10</definedName>
     <definedName name="solver_rhs4" localSheetId="3" hidden="1">'binary example investment'!$K$16</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">'mixed Intg PL'!$F$11</definedName>
     <definedName name="solver_rhs5" localSheetId="3" hidden="1">'binary example investment'!$K$17</definedName>
@@ -226,84 +225,84 @@
     <definedName name="solver_rhs6" localSheetId="1" hidden="1">'mixed Intg PL'!$F$13</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="8" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="9" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="8" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="8" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="9" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="8" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="9" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="8" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="9" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="8" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -315,7 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
   <si>
     <t>Alubias</t>
   </si>
@@ -498,24 +497,6 @@
   </si>
   <si>
     <t>Budget (presupuesto)</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>L6</t>
   </si>
   <si>
     <t>X</t>
@@ -666,6 +647,22 @@
   <si>
     <t>price/ burger (p)</t>
   </si>
+  <si>
+    <t>Max: VAN total de los proyectos aprobados</t>
+  </si>
+  <si>
+    <t>mill $</t>
+  </si>
+  <si>
+    <t>Gastos 1 año</t>
+  </si>
+  <si>
+    <t>Gastos 3 años</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al menos 1 proyecto 
+aprobado/área </t>
+  </si>
 </sst>
 </file>
 
@@ -675,7 +672,7 @@
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.0_ ;_-[$$-409]* \-#,##0.0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -912,7 +909,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1056,53 +1053,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1112,6 +1079,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1177,16 +1177,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>207670</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>86352</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>658319</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38346</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1203,8 +1203,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="207670" y="2409825"/>
-          <a:ext cx="7555832" cy="1219200"/>
+          <a:off x="4733925" y="180975"/>
+          <a:ext cx="7840169" cy="1762371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1213,41 +1213,36 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>220169</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47871</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152992</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76651</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3810000" y="381000"/>
-          <a:ext cx="7840169" cy="1762371"/>
+          <a:off x="5819775" y="2143125"/>
+          <a:ext cx="4239217" cy="3229426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1882,87 +1877,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>289228</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6086476" y="0"/>
-          <a:ext cx="9442752" cy="1514475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>155499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171962</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6086475" y="1488999"/>
-          <a:ext cx="6210300" cy="2683463"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2002,7 +1916,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2045,7 +1959,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2126,7 +2040,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2158,6 +2072,49 @@
         <a:xfrm>
           <a:off x="1331" y="2447924"/>
           <a:ext cx="7066862" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>207670</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>86352</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="207670" y="2409825"/>
+          <a:ext cx="7555832" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2582,114 +2539,112 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A11:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="13"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="81">
-        <v>3.8000000004882817</v>
-      </c>
-      <c r="C2" s="80" t="s">
+    <row r="11" spans="3:3">
+      <c r="C11" s="75"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="13">
+        <v>10000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="84">
-        <f>-10000*B2+70000</f>
-        <v>31999.999995117185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="79" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="26">
-        <f>0.6*B6+2500</f>
-        <v>21699.99999707031</v>
-      </c>
-      <c r="C7" s="26" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B7)</f>
-        <v>=0,6*B6+2500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="13">
+        <v>4000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="27" customHeight="1">
+      <c r="A23" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="83">
-        <f>B6*B2-B7</f>
-        <v>99900.000000000015</v>
-      </c>
-      <c r="C10" s="26" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B10)</f>
-        <v>=B6*B2-B7</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2738,20 +2693,20 @@
       <c r="C4" s="17">
         <v>5100</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="63"/>
+      <c r="E4" s="76"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="64" t="s">
+      <c r="M6" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="5" t="s">
@@ -2761,9 +2716,9 @@
         <f>SUMPRODUCT(B3:C3,B4:C4)</f>
         <v>37900</v>
       </c>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
     </row>
     <row r="10" spans="1:19" ht="45.75" thickBot="1">
       <c r="A10" s="1"/>
@@ -3033,11 +2988,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="20" t="s">
@@ -3362,65 +3317,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G3"/>
-  <sheetViews>
-    <sheetView topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="51">
-        <v>1</v>
-      </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51">
-        <v>0</v>
-      </c>
-      <c r="E3" s="51">
-        <v>0</v>
-      </c>
-      <c r="F3" s="51">
-        <v>0</v>
-      </c>
-      <c r="G3" s="51">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -3437,15 +3333,15 @@
     <row r="1" spans="1:7">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="57" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B2" s="59">
         <v>0.93023256654861053</v>
@@ -3455,26 +3351,26 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="66"/>
+      <c r="A4" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="79"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2">
         <f>B2^2</f>
@@ -3524,7 +3420,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="57" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -3532,7 +3428,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B11" s="54">
         <f>SUMPRODUCT(B6:D6,B8:D8)</f>
@@ -3545,18 +3441,18 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="58" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="56"/>
       <c r="D14" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3584,7 +3480,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="47" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B16" s="55">
         <v>0.11</v>
@@ -3632,7 +3528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -3649,16 +3545,16 @@
     <row r="1" spans="1:6">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3697,14 +3593,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B5" s="54">
         <f>B2*D2+C2*E2</f>
         <v>100.5</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B5)</f>
@@ -3713,7 +3609,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="D6" s="61" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3723,18 +3619,18 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -3763,7 +3659,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="62" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -3780,24 +3676,24 @@
       <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
+      <c r="A14" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A15" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
+      <c r="A15" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3809,7 +3705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -3824,25 +3720,25 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="76">
+        <v>65</v>
+      </c>
+      <c r="B2" s="66">
         <v>3</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="74">
+      <c r="B3" s="64">
         <v>2.5</v>
       </c>
       <c r="C3" s="13"/>
@@ -3854,16 +3750,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="77">
+        <v>82</v>
+      </c>
+      <c r="B6" s="67">
         <f>0.0001*B2+4</f>
         <v>4.0003000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3872,20 +3768,20 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="75">
+        <v>84</v>
+      </c>
+      <c r="B10" s="65">
         <v>0.8</v>
       </c>
       <c r="C10" s="2"/>
@@ -3905,7 +3801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -3921,10 +3817,10 @@
     <row r="1" spans="1:7">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3937,15 +3833,15 @@
       <c r="C2" s="51">
         <v>50</v>
       </c>
-      <c r="D2" s="80" t="s">
-        <v>96</v>
+      <c r="D2" s="70" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="73">
+      <c r="B3" s="63">
         <v>80</v>
       </c>
-      <c r="C3" s="73">
+      <c r="C3" s="63">
         <v>45</v>
       </c>
     </row>
@@ -3956,7 +3852,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B5" s="46">
         <f>SUMPRODUCT(B2:C2,B3:C3)</f>
@@ -3964,8 +3860,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="78" t="s">
-        <v>93</v>
+      <c r="A6" s="68" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3975,18 +3871,18 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="52" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
@@ -4011,7 +3907,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="52" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
@@ -4035,7 +3931,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="79"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -4046,4 +3942,104 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.5" customHeight="1">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="71">
+        <v>3.8000000004882817</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="74">
+        <f>-10000*B2+70000</f>
+        <v>31999.999995117185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="26">
+        <f>0.6*B6+2500</f>
+        <v>21699.99999707031</v>
+      </c>
+      <c r="C7" s="26" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B7)</f>
+        <v>=0,6*B6+2500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="73">
+        <f>B6*B2-B7</f>
+        <v>99900.000000000015</v>
+      </c>
+      <c r="C10" s="26" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B10)</f>
+        <v>=B6*B2-B7</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>